--- a/JOGOS/2023-07-29_Lay_0x1.xlsx
+++ b/JOGOS/2023-07-29_Lay_0x1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -49,106 +49,121 @@
     <t>Nº</t>
   </si>
   <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>27/07/2023</t>
-  </si>
-  <si>
-    <t>12:45</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>20:00</t>
+    <t>29/07/2023</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>08:35</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>18:30</t>
   </si>
   <si>
     <t>20:30</t>
   </si>
   <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>AUSTRIA - 2. LIGA</t>
-  </si>
-  <si>
-    <t>EUROPE - EUROPA CONFERENCE LEAGUE</t>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>JAPAN - J2 LEAGUE</t>
+  </si>
+  <si>
+    <t>CHINA - SUPER LEAGUE</t>
   </si>
   <si>
     <t>DENMARK - 1ST DIVISION</t>
   </si>
   <si>
-    <t>ROMANIA - LIGA 1</t>
-  </si>
-  <si>
-    <t>CANADA - CANADIAN PREMIER LEAGUE</t>
+    <t>SWEDEN - SUPERETTAN</t>
+  </si>
+  <si>
+    <t>SLOVENIA - PRVA LIGA</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE A</t>
   </si>
   <si>
     <t>BOLIVIA - DIVISION PROFESIONAL</t>
   </si>
   <si>
-    <t>ARGENTINA - LIGA PROFESIONAL</t>
-  </si>
-  <si>
-    <t>BRAZIL - SERIE B</t>
-  </si>
-  <si>
-    <t>Grazer AK</t>
-  </si>
-  <si>
-    <t>Liefering</t>
-  </si>
-  <si>
-    <t>Ferencvaros (Hun)</t>
-  </si>
-  <si>
-    <t>Sonderjyske</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti</t>
-  </si>
-  <si>
-    <t>Forge</t>
-  </si>
-  <si>
-    <t>Royal Pari</t>
-  </si>
-  <si>
-    <t>River Plate</t>
-  </si>
-  <si>
-    <t>Sport Recife</t>
-  </si>
-  <si>
-    <t>Amstetten</t>
-  </si>
-  <si>
-    <t>Dornbirn</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers (Irl)</t>
-  </si>
-  <si>
-    <t>Fredericia</t>
-  </si>
-  <si>
-    <t>FC Botosani</t>
-  </si>
-  <si>
-    <t>Vancouver FC</t>
-  </si>
-  <si>
-    <t>Tomayapo</t>
-  </si>
-  <si>
-    <t>Racing Club</t>
-  </si>
-  <si>
-    <t>CRB</t>
+    <t>CHILE - PRIMERA DIVISION</t>
+  </si>
+  <si>
+    <t>USA - USL CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>Machida</t>
+  </si>
+  <si>
+    <t>Meizhou Hakka</t>
+  </si>
+  <si>
+    <t>Kolding IF</t>
+  </si>
+  <si>
+    <t>Oster</t>
+  </si>
+  <si>
+    <t>Koper</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>The Strongest</t>
+  </si>
+  <si>
+    <t>Colo Colo</t>
+  </si>
+  <si>
+    <t>Tampa Bay</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Tokushima</t>
+  </si>
+  <si>
+    <t>Dalian Pro</t>
+  </si>
+  <si>
+    <t>Hillerod</t>
+  </si>
+  <si>
+    <t>Jonkoping</t>
+  </si>
+  <si>
+    <t>Radomlje</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Palmaflor</t>
+  </si>
+  <si>
+    <t>Huachipato</t>
+  </si>
+  <si>
+    <t>FC Tulsa</t>
+  </si>
+  <si>
+    <t>Hartford Athletic</t>
   </si>
 </sst>
 </file>
@@ -506,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,43 +570,43 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="H2">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="I2">
-        <v>5.1</v>
+        <v>5.25</v>
       </c>
       <c r="J2">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="K2">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="M2">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -605,75 +620,75 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="H3">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>4.38</v>
+        <v>5.5</v>
       </c>
       <c r="J3">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="K3">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="M3">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="H4">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="K4">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L4">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="M4">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -684,165 +699,165 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="H5">
         <v>4.2</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J5">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="K5">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="M5">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3.78</v>
       </c>
       <c r="I6">
-        <v>5.75</v>
+        <v>4.91</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="H7">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>12.9</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>1.51</v>
+        <v>2.2</v>
       </c>
       <c r="K7">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>1.51</v>
+        <v>2.2</v>
       </c>
       <c r="M7">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>1.55</v>
+        <v>1.11</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="I8">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="J8">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="K8">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="L8">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="M8">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -851,75 +866,116 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G9">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="H9">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="J9">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="K9">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="L9">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="M9">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G10">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="H10">
-        <v>3.64</v>
+        <v>4.45</v>
       </c>
       <c r="I10">
-        <v>5.35</v>
+        <v>6.63</v>
       </c>
       <c r="J10">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="K10">
-        <v>2.19</v>
+        <v>1.83</v>
       </c>
       <c r="L10">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="M10">
-        <v>2.19</v>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>1.4</v>
+      </c>
+      <c r="H11">
+        <v>4.6</v>
+      </c>
+      <c r="I11">
+        <v>6.77</v>
+      </c>
+      <c r="J11">
+        <v>1.63</v>
+      </c>
+      <c r="K11">
+        <v>1.79</v>
+      </c>
+      <c r="L11">
+        <v>1.63</v>
+      </c>
+      <c r="M11">
+        <v>1.79</v>
       </c>
     </row>
   </sheetData>
